--- a/medicine/Enfance/Festival_international_du_film_pour_enfants_de_Montréal/Festival_international_du_film_pour_enfants_de_Montréal.xlsx
+++ b/medicine/Enfance/Festival_international_du_film_pour_enfants_de_Montréal/Festival_international_du_film_pour_enfants_de_Montréal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Festival_international_du_film_pour_enfants_de_Montr%C3%A9al</t>
+          <t>Festival_international_du_film_pour_enfants_de_Montréal</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Festival international du film pour enfants de Montréal (FIFEM) est un festival de cinéma créé en 1998 et se déroulant à Montréal.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Festival_international_du_film_pour_enfants_de_Montr%C3%A9al</t>
+          <t>Festival_international_du_film_pour_enfants_de_Montréal</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,8 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2014
-Prix du public : Le Coq de St-Victor de Pierre Greco
+          <t>2014</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Prix du public : Le Coq de St-Victor de Pierre Greco
 Le Grand Prix de Montréal et Prix Place aux Familles : Sur les traces de Superman de Karzan Kader
 Prix spécial du jury enfants : Les Durs à cuire de Christian Lo
 Prix spécial du jury international : Maman, je t'aime de Janis Nords</t>
@@ -527,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Festival_international_du_film_pour_enfants_de_Montr%C3%A9al</t>
+          <t>Festival_international_du_film_pour_enfants_de_Montréal</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +562,9 @@
           <t>Lien externe</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">site officiel
  Portail du cinéma   Portail de Montréal   Portail de l'enfance                   </t>
